--- a/Team-Data/2008-09/12-11-2008-09.xlsx
+++ b/Team-Data/2008-09/12-11-2008-09.xlsx
@@ -811,7 +811,7 @@
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -829,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -847,7 +847,7 @@
         <v>27</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>25</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.905</v>
+        <v>0.909</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.352</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -1023,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
@@ -1047,16 +1047,16 @@
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
@@ -1175,13 +1175,13 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1279,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.476</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.436</v>
+        <v>0.439</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.803</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
@@ -1342,31 +1342,31 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>12</v>
@@ -1375,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
@@ -1390,13 +1390,13 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1420,19 +1420,19 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,127 +1461,127 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.905</v>
+        <v>0.864</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.482</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="O6" t="n">
         <v>20.3</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="O6" t="n">
-        <v>20.1</v>
-      </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1593,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
@@ -1608,10 +1608,10 @@
         <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
@@ -1903,7 +1903,7 @@
         <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1918,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL8" t="n">
         <v>16</v>
@@ -1933,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
@@ -1957,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>14</v>
@@ -2103,7 +2103,7 @@
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2115,19 +2115,19 @@
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS9" t="n">
         <v>21</v>
@@ -2145,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY9" t="n">
         <v>10</v>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>25</v>
@@ -2267,13 +2267,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2282,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2449,13 +2449,13 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>8</v>
@@ -2473,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2631,7 +2631,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2658,10 +2658,10 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>28</v>
@@ -2691,7 +2691,7 @@
         <v>27</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
@@ -2706,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2825,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.85</v>
+        <v>0.857</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2944,64 +2944,64 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -3016,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -3025,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3058,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>8</v>
@@ -3177,13 +3177,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -3243,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3371,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3383,7 +3383,7 @@
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>8</v>
@@ -3395,7 +3395,7 @@
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
@@ -3422,13 +3422,13 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>13</v>
@@ -3463,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
       <c r="H17" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
         <v>35.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>14.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.76</v>
@@ -3508,46 +3508,46 @@
         <v>13.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
@@ -3556,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3571,13 +3571,13 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>19</v>
@@ -3586,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3595,7 +3595,7 @@
         <v>20</v>
       </c>
       <c r="AV17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>25</v>
@@ -3610,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3723,7 +3723,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3741,7 +3741,7 @@
         <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3759,10 +3759,10 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3792,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
@@ -3905,7 +3905,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>14</v>
@@ -3920,10 +3920,10 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>13</v>
@@ -3944,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>19</v>
@@ -4096,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4156,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4269,7 +4269,7 @@
         <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -4308,7 +4308,7 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4341,7 +4341,7 @@
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4451,7 +4451,7 @@
         <v>-10.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4633,10 +4633,10 @@
         <v>5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4663,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4708,7 +4708,7 @@
         <v>11</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,10 +4815,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4830,10 +4830,10 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>25</v>
@@ -4848,7 +4848,7 @@
         <v>26</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>20</v>
@@ -4866,16 +4866,16 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV24" t="n">
         <v>23</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -5009,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="n">
         <v>15</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.652</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.407</v>
+        <v>0.408</v>
       </c>
       <c r="O26" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
@@ -5230,31 +5230,31 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5373,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>9</v>
@@ -5382,7 +5382,7 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
@@ -5394,13 +5394,13 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>22</v>
@@ -5543,13 +5543,13 @@
         <v>3</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5561,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>5</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5725,10 +5725,10 @@
         <v>-4.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>18</v>
@@ -5740,10 +5740,10 @@
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
@@ -5758,7 +5758,7 @@
         <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>22</v>
@@ -5770,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
@@ -5785,7 +5785,7 @@
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY29" t="n">
         <v>18</v>
@@ -5907,7 +5907,7 @@
         <v>4.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5925,7 +5925,7 @@
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5946,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5976,7 +5976,7 @@
         <v>19</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>10</v>
@@ -6095,7 +6095,7 @@
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6125,13 +6125,13 @@
         <v>21</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
@@ -6140,10 +6140,10 @@
         <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>

--- a/Team-Data/2008-09/12-11-2008-09.xlsx
+++ b/Team-Data/2008-09/12-11-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -762,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
@@ -774,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
@@ -783,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>23</v>
@@ -792,16 +859,16 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
         <v>16</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
         <v>12</v>
@@ -813,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.478</v>
+        <v>0.473</v>
       </c>
       <c r="L3" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.352</v>
       </c>
       <c r="O3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="P3" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T3" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>100.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>17</v>
@@ -956,7 +1023,7 @@
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,31 +1032,31 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
@@ -998,10 +1065,10 @@
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -1030,97 +1097,97 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="L4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M4" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P4" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="T4" t="n">
-        <v>37.8</v>
+        <v>37.5</v>
       </c>
       <c r="U4" t="n">
         <v>18.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
         <v>22.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
         <v>89.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,25 +1196,25 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
@@ -1162,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>0.476</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.436</v>
+        <v>0.439</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.803</v>
+        <v>0.799</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.8</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
@@ -1275,43 +1342,43 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1320,16 +1387,16 @@
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>10</v>
@@ -1341,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1353,19 +1420,19 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.905</v>
+        <v>0.864</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.8</v>
+        <v>38.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.482</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
+        <v>20</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="O6" t="n">
         <v>20.3</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="O6" t="n">
-        <v>20.1</v>
-      </c>
       <c r="P6" t="n">
-        <v>25.6</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="R6" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1487,34 +1554,34 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
         <v>9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
         <v>9</v>
@@ -1526,25 +1593,25 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>38.4</v>
       </c>
       <c r="J7" t="n">
-        <v>84.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.451</v>
@@ -1606,70 +1673,70 @@
         <v>19.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O7" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.795</v>
+        <v>0.79</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="T7" t="n">
-        <v>46.2</v>
+        <v>46.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6</v>
+        <v>13.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
         <v>4</v>
@@ -1687,10 +1754,10 @@
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
         <v>6</v>
@@ -1705,28 +1772,28 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
         <v>11</v>
       </c>
-      <c r="AV7" t="n">
-        <v>8</v>
-      </c>
       <c r="AW7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX7" t="n">
         <v>15</v>
       </c>
-      <c r="AX7" t="n">
-        <v>18</v>
-      </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>5.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
@@ -1890,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
@@ -2036,58 +2103,58 @@
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS9" t="n">
         <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2215,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2224,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
         <v>15</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>3.8</v>
       </c>
       <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2406,7 +2473,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
@@ -2418,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2436,10 +2503,10 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX11" t="n">
         <v>27</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>28</v>
@@ -2639,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2770,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS13" t="n">
         <v>22</v>
@@ -2800,10 +2867,10 @@
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.85</v>
+        <v>0.857</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>84.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,64 +2944,64 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="R14" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.7</v>
       </c>
       <c r="W14" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>3</v>
@@ -2949,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>8</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -3155,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
         <v>27</v>
@@ -3173,19 +3240,19 @@
         <v>26</v>
       </c>
       <c r="AY15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA15" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>9</v>
       </c>
       <c r="BB15" t="n">
         <v>26</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3304,19 +3371,19 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>8</v>
@@ -3328,19 +3395,19 @@
         <v>22</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>19</v>
@@ -3349,19 +3416,19 @@
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
       <c r="H17" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I17" t="n">
         <v>35.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>14.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O17" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q17" t="n">
         <v>0.76</v>
@@ -3441,46 +3508,46 @@
         <v>13.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V17" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.1</v>
+        <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>21</v>
@@ -3489,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3504,13 +3571,13 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ17" t="n">
         <v>19</v>
@@ -3519,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3531,7 +3598,7 @@
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3668,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3692,22 +3759,22 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>17</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>12</v>
@@ -3716,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
         <v>28</v>
@@ -3725,7 +3792,7 @@
         <v>26</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -3838,28 +3905,28 @@
         <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
         <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>15</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>16</v>
-      </c>
       <c r="AK19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3877,7 +3944,7 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
         <v>19</v>
@@ -3886,7 +3953,7 @@
         <v>19</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>27</v>
@@ -3898,7 +3965,7 @@
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4071,10 +4138,10 @@
         <v>28</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
@@ -4089,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4211,13 +4278,13 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4241,7 +4308,7 @@
         <v>27</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4265,16 +4332,16 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -4438,13 +4505,13 @@
         <v>25</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4596,13 +4663,13 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO23" t="n">
         <v>8</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4617,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4763,10 +4830,10 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>25</v>
@@ -4787,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
@@ -4799,7 +4866,7 @@
         <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -4939,10 +5006,10 @@
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>8</v>
@@ -4966,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
         <v>28</v>
@@ -4987,16 +5054,16 @@
         <v>30</v>
       </c>
       <c r="AW25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5049,31 +5116,31 @@
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.46</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.397</v>
+        <v>0.408</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5085,31 +5152,31 @@
         <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>13.2</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
         <v>5.6</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
         <v>2</v>
@@ -5124,31 +5191,31 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
         <v>10</v>
@@ -5163,13 +5230,13 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
         <v>10</v>
@@ -5178,13 +5245,13 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-7.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5315,7 +5382,7 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
         <v>24</v>
@@ -5327,10 +5394,10 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
         <v>9</v>
@@ -5348,7 +5415,7 @@
         <v>18</v>
       </c>
       <c r="AV27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5485,7 +5552,7 @@
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5539,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>-4.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>18</v>
@@ -5673,10 +5740,10 @@
         <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>17</v>
@@ -5691,10 +5758,10 @@
         <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5762,94 +5829,94 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>0.625</v>
+        <v>0.609</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J30" t="n">
-        <v>78.40000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.481</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O30" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R30" t="n">
         <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z30" t="n">
         <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5858,7 +5925,7 @@
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5870,16 +5937,16 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5894,22 +5961,22 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>19</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
@@ -5944,91 +6011,91 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>0.211</v>
       </c>
       <c r="H31" t="n">
         <v>48.3</v>
       </c>
       <c r="I31" t="n">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="J31" t="n">
-        <v>81.7</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N31" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P31" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="T31" t="n">
-        <v>39.8</v>
+        <v>40.5</v>
       </c>
       <c r="U31" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.4</v>
+        <v>12.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5.4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6040,10 +6107,10 @@
         <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>19</v>
@@ -6055,28 +6122,28 @@
         <v>25</v>
       </c>
       <c r="AO31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP31" t="n">
         <v>19</v>
       </c>
-      <c r="AP31" t="n">
+      <c r="AQ31" t="n">
         <v>18</v>
       </c>
-      <c r="AQ31" t="n">
-        <v>17</v>
-      </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
@@ -6085,19 +6152,19 @@
         <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-11-2008-09</t>
+          <t>2008-12-11</t>
         </is>
       </c>
     </row>
